--- a/docs/Documents_files/FM250/Solution8_2.xlsx
+++ b/docs/Documents_files/FM250/Solution8_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/domenicomergoni/Desktop/FM250/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/domenicomergoni/Documents/LSE/Website_quarto/Documents_files/FM250/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF3B727-A9A1-514E-9F45-5BCAAE03604C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE301147-5D43-B74F-8231-B35A48761D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,7 +111,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,8 +148,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,6 +166,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -175,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -185,7 +246,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -194,9 +254,18 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L1048576"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -552,34 +621,34 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7">
-        <v>150</v>
-      </c>
-      <c r="D2" s="7">
-        <v>150</v>
-      </c>
-      <c r="E2" s="7">
-        <v>150</v>
-      </c>
-      <c r="F2" s="7">
-        <v>150</v>
-      </c>
-      <c r="G2" s="7">
-        <v>150</v>
-      </c>
-      <c r="H2" s="7">
-        <v>150</v>
-      </c>
-      <c r="I2" s="7">
-        <v>150</v>
-      </c>
-      <c r="J2" s="7">
-        <v>150</v>
-      </c>
-      <c r="K2" s="7">
-        <v>150</v>
-      </c>
-      <c r="L2" s="7">
+      <c r="C2" s="13">
+        <v>150</v>
+      </c>
+      <c r="D2" s="13">
+        <v>150</v>
+      </c>
+      <c r="E2" s="13">
+        <v>150</v>
+      </c>
+      <c r="F2" s="13">
+        <v>150</v>
+      </c>
+      <c r="G2" s="13">
+        <v>150</v>
+      </c>
+      <c r="H2" s="13">
+        <v>150</v>
+      </c>
+      <c r="I2" s="13">
+        <v>150</v>
+      </c>
+      <c r="J2" s="13">
+        <v>150</v>
+      </c>
+      <c r="K2" s="13">
+        <v>150</v>
+      </c>
+      <c r="L2" s="13">
         <v>150</v>
       </c>
     </row>
@@ -806,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D23D4A-4A9C-D845-9EA2-35470E599874}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L1048576"/>
+    <sheetView zoomScale="184" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1316,7 +1385,7 @@
       <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="22">
         <v>1000</v>
       </c>
       <c r="C20" s="4"/>
@@ -1337,12 +1406,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7E777C-9EB8-4540-96DC-C38F40C9E229}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L1048576"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="12" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1863,47 +1933,47 @@
       <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="23">
         <f>B7-B20-B18-B16</f>
         <v>-1050</v>
       </c>
-      <c r="C22" s="7">
-        <f>C7-C19-C20-C16</f>
-        <v>119</v>
-      </c>
-      <c r="D22" s="7">
-        <f>D7-D19-D20-D16</f>
-        <v>119</v>
-      </c>
-      <c r="E22" s="7">
-        <f>E7-E19-E20-E16</f>
-        <v>119</v>
-      </c>
-      <c r="F22" s="7">
-        <f>F7-F19-F20-F16</f>
-        <v>119</v>
-      </c>
-      <c r="G22" s="7">
-        <f>G7-G19-G20-G16</f>
-        <v>119</v>
-      </c>
-      <c r="H22" s="7">
-        <f>H7-H19-H20-H16</f>
-        <v>119</v>
-      </c>
-      <c r="I22" s="7">
-        <f>I7-I19-I20-I16</f>
-        <v>119</v>
-      </c>
-      <c r="J22" s="7">
-        <f>J7-J19-J20-J16</f>
-        <v>119</v>
-      </c>
-      <c r="K22" s="7">
-        <f>K7-K19-K20-K16</f>
-        <v>119</v>
-      </c>
-      <c r="L22" s="7">
+      <c r="C22" s="23">
+        <f t="shared" ref="C22:K22" si="4">C7-C19-C20-C16</f>
+        <v>119</v>
+      </c>
+      <c r="D22" s="23">
+        <f t="shared" si="4"/>
+        <v>119</v>
+      </c>
+      <c r="E22" s="23">
+        <f t="shared" si="4"/>
+        <v>119</v>
+      </c>
+      <c r="F22" s="23">
+        <f t="shared" si="4"/>
+        <v>119</v>
+      </c>
+      <c r="G22" s="23">
+        <f t="shared" si="4"/>
+        <v>119</v>
+      </c>
+      <c r="H22" s="23">
+        <f t="shared" si="4"/>
+        <v>119</v>
+      </c>
+      <c r="I22" s="23">
+        <f t="shared" si="4"/>
+        <v>119</v>
+      </c>
+      <c r="J22" s="23">
+        <f t="shared" si="4"/>
+        <v>119</v>
+      </c>
+      <c r="K22" s="23">
+        <f t="shared" si="4"/>
+        <v>119</v>
+      </c>
+      <c r="L22" s="23">
         <f>L7-L19-L20-L16+L13</f>
         <v>339</v>
       </c>
@@ -1912,48 +1982,48 @@
       <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="16">
-        <f>B22/(1+0.1)^B1</f>
+      <c r="B23" s="24">
+        <f t="shared" ref="B23:L23" si="5">B22/(1+0.1)^B1</f>
         <v>-1050</v>
       </c>
-      <c r="C23" s="16">
-        <f>C22/(1+0.1)^C1</f>
+      <c r="C23" s="24">
+        <f t="shared" si="5"/>
         <v>108.18181818181817</v>
       </c>
-      <c r="D23" s="16">
-        <f>D22/(1+0.1)^D1</f>
+      <c r="D23" s="24">
+        <f t="shared" si="5"/>
         <v>98.347107438016508</v>
       </c>
-      <c r="E23" s="16">
-        <f>E22/(1+0.1)^E1</f>
+      <c r="E23" s="24">
+        <f t="shared" si="5"/>
         <v>89.406461307287728</v>
       </c>
-      <c r="F23" s="16">
-        <f>F22/(1+0.1)^F1</f>
+      <c r="F23" s="24">
+        <f t="shared" si="5"/>
         <v>81.278601188443389</v>
       </c>
-      <c r="G23" s="16">
-        <f>G22/(1+0.1)^G1</f>
+      <c r="G23" s="24">
+        <f t="shared" si="5"/>
         <v>73.889637444039437</v>
       </c>
-      <c r="H23" s="16">
-        <f>H22/(1+0.1)^H1</f>
+      <c r="H23" s="24">
+        <f t="shared" si="5"/>
         <v>67.172397676399484</v>
       </c>
-      <c r="I23" s="16">
-        <f>I22/(1+0.1)^I1</f>
+      <c r="I23" s="24">
+        <f t="shared" si="5"/>
         <v>61.065816069454065</v>
       </c>
-      <c r="J23" s="16">
-        <f>J22/(1+0.1)^J1</f>
+      <c r="J23" s="24">
+        <f t="shared" si="5"/>
         <v>55.514378244958245</v>
       </c>
-      <c r="K23" s="16">
-        <f>K22/(1+0.1)^K1</f>
+      <c r="K23" s="24">
+        <f t="shared" si="5"/>
         <v>50.467616586325676</v>
       </c>
-      <c r="L23" s="16">
-        <f>L22/(1+0.1)^L1</f>
+      <c r="L23" s="24">
+        <f t="shared" si="5"/>
         <v>130.69917511661117</v>
       </c>
     </row>
@@ -1961,7 +2031,7 @@
       <c r="A24" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="24">
         <f>SUM(B23:L23)</f>
         <v>-233.97699074664627</v>
       </c>
@@ -1975,8 +2045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L23"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2603,8 +2673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L1048576"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2686,34 +2756,34 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7">
-        <v>10</v>
-      </c>
-      <c r="F3" s="7">
-        <v>10</v>
-      </c>
-      <c r="G3" s="7">
-        <v>10</v>
-      </c>
-      <c r="H3" s="7">
-        <v>10</v>
-      </c>
-      <c r="I3" s="7">
-        <v>10</v>
-      </c>
-      <c r="J3" s="7">
-        <v>10</v>
-      </c>
-      <c r="K3" s="7">
-        <v>10</v>
-      </c>
-      <c r="L3" s="7">
+      <c r="C3" s="14">
+        <v>10</v>
+      </c>
+      <c r="D3" s="14">
+        <v>10</v>
+      </c>
+      <c r="E3" s="14">
+        <v>10</v>
+      </c>
+      <c r="F3" s="14">
+        <v>10</v>
+      </c>
+      <c r="G3" s="14">
+        <v>10</v>
+      </c>
+      <c r="H3" s="14">
+        <v>10</v>
+      </c>
+      <c r="I3" s="14">
+        <v>10</v>
+      </c>
+      <c r="J3" s="14">
+        <v>10</v>
+      </c>
+      <c r="K3" s="14">
+        <v>10</v>
+      </c>
+      <c r="L3" s="14">
         <v>10</v>
       </c>
     </row>
@@ -2726,8 +2796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436F3942-4807-7A4A-B6A9-3752EFE5D5F5}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="163" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2844,34 +2914,34 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7">
-        <v>80</v>
-      </c>
-      <c r="D4" s="7">
-        <v>80</v>
-      </c>
-      <c r="E4" s="7">
-        <v>80</v>
-      </c>
-      <c r="F4" s="7">
-        <v>80</v>
-      </c>
-      <c r="G4" s="7">
-        <v>80</v>
-      </c>
-      <c r="H4" s="7">
-        <v>80</v>
-      </c>
-      <c r="I4" s="7">
-        <v>80</v>
-      </c>
-      <c r="J4" s="7">
-        <v>80</v>
-      </c>
-      <c r="K4" s="7">
-        <v>80</v>
-      </c>
-      <c r="L4" s="7">
+      <c r="C4" s="15">
+        <v>80</v>
+      </c>
+      <c r="D4" s="15">
+        <v>80</v>
+      </c>
+      <c r="E4" s="15">
+        <v>80</v>
+      </c>
+      <c r="F4" s="15">
+        <v>80</v>
+      </c>
+      <c r="G4" s="15">
+        <v>80</v>
+      </c>
+      <c r="H4" s="15">
+        <v>80</v>
+      </c>
+      <c r="I4" s="15">
+        <v>80</v>
+      </c>
+      <c r="J4" s="15">
+        <v>80</v>
+      </c>
+      <c r="K4" s="15">
+        <v>80</v>
+      </c>
+      <c r="L4" s="15">
         <v>80</v>
       </c>
     </row>
@@ -2884,8 +2954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C9D3CF-1044-F348-B4B6-347367EA97D0}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L1048576"/>
+    <sheetView zoomScale="163" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3037,43 +3107,43 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <f>C2-C3-C4</f>
         <v>60</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <f t="shared" ref="D5:L5" si="0">D2-D3-D4</f>
         <v>60</v>
       </c>
-      <c r="E5" s="8">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F5" s="8">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="G5" s="8">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="H5" s="8">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="I5" s="8">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="J5" s="8">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="K5" s="8">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="L5" s="8">
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="J5" s="7">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="K5" s="7">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="L5" s="7">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -3087,8 +3157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32C7787-0E83-4B4B-B6EC-B5846EFAAA33}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L1048576"/>
+    <sheetView zoomScale="161" workbookViewId="0">
+      <selection activeCell="C7" sqref="C6:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3285,43 +3355,43 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="16">
         <f>C5*(1-0.35)</f>
         <v>39</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="16">
         <f t="shared" ref="D6:L6" si="1">D5*(1-0.35)</f>
         <v>39</v>
       </c>
-      <c r="E6" s="7">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="F6" s="7">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="G6" s="7">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="H6" s="7">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="I6" s="7">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="J6" s="7">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="K6" s="7">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="L6" s="7">
+      <c r="E6" s="16">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="F6" s="16">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="G6" s="16">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="H6" s="16">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="I6" s="16">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="J6" s="16">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="K6" s="16">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="L6" s="16">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
@@ -3335,8 +3405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F691042-16A2-0148-8111-8486A4BF50E0}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L1048576"/>
+    <sheetView zoomScale="255" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3578,43 +3648,43 @@
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="17">
         <f>C6+C4</f>
         <v>119</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="17">
         <f t="shared" ref="D7:L7" si="2">D6+D4</f>
         <v>119</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="17">
         <f t="shared" si="2"/>
         <v>119</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="17">
         <f t="shared" si="2"/>
         <v>119</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="17">
         <f t="shared" si="2"/>
         <v>119</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="17">
         <f t="shared" si="2"/>
         <v>119</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="17">
         <f t="shared" si="2"/>
         <v>119</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="17">
         <f t="shared" si="2"/>
         <v>119</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="17">
         <f t="shared" si="2"/>
         <v>119</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="17">
         <f t="shared" si="2"/>
         <v>119</v>
       </c>
@@ -3628,8 +3698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E24EC7A-3DA1-8945-830A-D8AB88B4A673}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L1048576"/>
+    <sheetView topLeftCell="A2" zoomScale="216" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3638,358 +3708,358 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9">
         <v>1</v>
       </c>
-      <c r="D1" s="10">
+      <c r="D1" s="9">
         <v>2</v>
       </c>
-      <c r="E1" s="10">
+      <c r="E1" s="9">
         <v>3</v>
       </c>
-      <c r="F1" s="10">
+      <c r="F1" s="9">
         <v>4</v>
       </c>
-      <c r="G1" s="10">
+      <c r="G1" s="9">
         <v>5</v>
       </c>
-      <c r="H1" s="10">
+      <c r="H1" s="9">
         <v>6</v>
       </c>
-      <c r="I1" s="10">
+      <c r="I1" s="9">
         <v>7</v>
       </c>
-      <c r="J1" s="10">
+      <c r="J1" s="9">
         <v>8</v>
       </c>
-      <c r="K1" s="10">
+      <c r="K1" s="9">
         <v>9</v>
       </c>
-      <c r="L1" s="10">
+      <c r="L1" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="11">
-        <v>150</v>
-      </c>
-      <c r="D2" s="11">
-        <v>150</v>
-      </c>
-      <c r="E2" s="11">
-        <v>150</v>
-      </c>
-      <c r="F2" s="11">
-        <v>150</v>
-      </c>
-      <c r="G2" s="11">
-        <v>150</v>
-      </c>
-      <c r="H2" s="11">
-        <v>150</v>
-      </c>
-      <c r="I2" s="11">
-        <v>150</v>
-      </c>
-      <c r="J2" s="11">
-        <v>150</v>
-      </c>
-      <c r="K2" s="11">
-        <v>150</v>
-      </c>
-      <c r="L2" s="11">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="10">
+        <v>150</v>
+      </c>
+      <c r="D2" s="10">
+        <v>150</v>
+      </c>
+      <c r="E2" s="10">
+        <v>150</v>
+      </c>
+      <c r="F2" s="10">
+        <v>150</v>
+      </c>
+      <c r="G2" s="10">
+        <v>150</v>
+      </c>
+      <c r="H2" s="10">
+        <v>150</v>
+      </c>
+      <c r="I2" s="10">
+        <v>150</v>
+      </c>
+      <c r="J2" s="10">
+        <v>150</v>
+      </c>
+      <c r="K2" s="10">
+        <v>150</v>
+      </c>
+      <c r="L2" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="11">
-        <v>10</v>
-      </c>
-      <c r="D3" s="11">
-        <v>10</v>
-      </c>
-      <c r="E3" s="11">
-        <v>10</v>
-      </c>
-      <c r="F3" s="11">
-        <v>10</v>
-      </c>
-      <c r="G3" s="11">
-        <v>10</v>
-      </c>
-      <c r="H3" s="11">
-        <v>10</v>
-      </c>
-      <c r="I3" s="11">
-        <v>10</v>
-      </c>
-      <c r="J3" s="11">
-        <v>10</v>
-      </c>
-      <c r="K3" s="11">
-        <v>10</v>
-      </c>
-      <c r="L3" s="11">
+      <c r="B3" s="8"/>
+      <c r="C3" s="10">
+        <v>10</v>
+      </c>
+      <c r="D3" s="10">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10">
+        <v>10</v>
+      </c>
+      <c r="F3" s="10">
+        <v>10</v>
+      </c>
+      <c r="G3" s="10">
+        <v>10</v>
+      </c>
+      <c r="H3" s="10">
+        <v>10</v>
+      </c>
+      <c r="I3" s="10">
+        <v>10</v>
+      </c>
+      <c r="J3" s="10">
+        <v>10</v>
+      </c>
+      <c r="K3" s="10">
+        <v>10</v>
+      </c>
+      <c r="L3" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="11">
-        <v>80</v>
-      </c>
-      <c r="D4" s="11">
-        <v>80</v>
-      </c>
-      <c r="E4" s="11">
-        <v>80</v>
-      </c>
-      <c r="F4" s="11">
-        <v>80</v>
-      </c>
-      <c r="G4" s="11">
-        <v>80</v>
-      </c>
-      <c r="H4" s="11">
-        <v>80</v>
-      </c>
-      <c r="I4" s="11">
-        <v>80</v>
-      </c>
-      <c r="J4" s="11">
-        <v>80</v>
-      </c>
-      <c r="K4" s="11">
-        <v>80</v>
-      </c>
-      <c r="L4" s="11">
+      <c r="B4" s="8"/>
+      <c r="C4" s="10">
+        <v>80</v>
+      </c>
+      <c r="D4" s="10">
+        <v>80</v>
+      </c>
+      <c r="E4" s="10">
+        <v>80</v>
+      </c>
+      <c r="F4" s="10">
+        <v>80</v>
+      </c>
+      <c r="G4" s="10">
+        <v>80</v>
+      </c>
+      <c r="H4" s="10">
+        <v>80</v>
+      </c>
+      <c r="I4" s="10">
+        <v>80</v>
+      </c>
+      <c r="J4" s="10">
+        <v>80</v>
+      </c>
+      <c r="K4" s="10">
+        <v>80</v>
+      </c>
+      <c r="L4" s="10">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="12">
-        <v>60</v>
-      </c>
-      <c r="D5" s="12">
-        <v>60</v>
-      </c>
-      <c r="E5" s="12">
-        <v>60</v>
-      </c>
-      <c r="F5" s="12">
-        <v>60</v>
-      </c>
-      <c r="G5" s="12">
-        <v>60</v>
-      </c>
-      <c r="H5" s="12">
-        <v>60</v>
-      </c>
-      <c r="I5" s="12">
-        <v>60</v>
-      </c>
-      <c r="J5" s="12">
-        <v>60</v>
-      </c>
-      <c r="K5" s="12">
-        <v>60</v>
-      </c>
-      <c r="L5" s="12">
+      <c r="B5" s="8"/>
+      <c r="C5" s="11">
+        <v>60</v>
+      </c>
+      <c r="D5" s="11">
+        <v>60</v>
+      </c>
+      <c r="E5" s="11">
+        <v>60</v>
+      </c>
+      <c r="F5" s="11">
+        <v>60</v>
+      </c>
+      <c r="G5" s="11">
+        <v>60</v>
+      </c>
+      <c r="H5" s="11">
+        <v>60</v>
+      </c>
+      <c r="I5" s="11">
+        <v>60</v>
+      </c>
+      <c r="J5" s="11">
+        <v>60</v>
+      </c>
+      <c r="K5" s="11">
+        <v>60</v>
+      </c>
+      <c r="L5" s="11">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="11">
-        <v>39</v>
-      </c>
-      <c r="D6" s="11">
-        <v>39</v>
-      </c>
-      <c r="E6" s="11">
-        <v>39</v>
-      </c>
-      <c r="F6" s="11">
-        <v>39</v>
-      </c>
-      <c r="G6" s="11">
-        <v>39</v>
-      </c>
-      <c r="H6" s="11">
-        <v>39</v>
-      </c>
-      <c r="I6" s="11">
-        <v>39</v>
-      </c>
-      <c r="J6" s="11">
-        <v>39</v>
-      </c>
-      <c r="K6" s="11">
-        <v>39</v>
-      </c>
-      <c r="L6" s="11">
+      <c r="B6" s="8"/>
+      <c r="C6" s="10">
+        <v>39</v>
+      </c>
+      <c r="D6" s="10">
+        <v>39</v>
+      </c>
+      <c r="E6" s="10">
+        <v>39</v>
+      </c>
+      <c r="F6" s="10">
+        <v>39</v>
+      </c>
+      <c r="G6" s="10">
+        <v>39</v>
+      </c>
+      <c r="H6" s="10">
+        <v>39</v>
+      </c>
+      <c r="I6" s="10">
+        <v>39</v>
+      </c>
+      <c r="J6" s="10">
+        <v>39</v>
+      </c>
+      <c r="K6" s="10">
+        <v>39</v>
+      </c>
+      <c r="L6" s="10">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="11">
-        <v>119</v>
-      </c>
-      <c r="D7" s="11">
-        <v>119</v>
-      </c>
-      <c r="E7" s="11">
-        <v>119</v>
-      </c>
-      <c r="F7" s="11">
-        <v>119</v>
-      </c>
-      <c r="G7" s="11">
-        <v>119</v>
-      </c>
-      <c r="H7" s="11">
-        <v>119</v>
-      </c>
-      <c r="I7" s="11">
-        <v>119</v>
-      </c>
-      <c r="J7" s="11">
-        <v>119</v>
-      </c>
-      <c r="K7" s="11">
-        <v>119</v>
-      </c>
-      <c r="L7" s="11">
+      <c r="B7" s="8"/>
+      <c r="C7" s="10">
+        <v>119</v>
+      </c>
+      <c r="D7" s="10">
+        <v>119</v>
+      </c>
+      <c r="E7" s="10">
+        <v>119</v>
+      </c>
+      <c r="F7" s="10">
+        <v>119</v>
+      </c>
+      <c r="G7" s="10">
+        <v>119</v>
+      </c>
+      <c r="H7" s="10">
+        <v>119</v>
+      </c>
+      <c r="I7" s="10">
+        <v>119</v>
+      </c>
+      <c r="J7" s="10">
+        <v>119</v>
+      </c>
+      <c r="K7" s="10">
+        <v>119</v>
+      </c>
+      <c r="L7" s="10">
         <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="14">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="18">
         <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="14">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="18">
         <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="14">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="14">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="14">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="18">
         <v>200</v>
       </c>
     </row>
@@ -4002,8 +4072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37854B43-FCC4-8B42-BC40-3FAE3D1D6FE2}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L1048576"/>
+    <sheetView zoomScale="194" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4399,37 +4469,37 @@
       <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="15">
-        <v>20</v>
-      </c>
-      <c r="C15" s="7">
-        <v>20</v>
-      </c>
-      <c r="D15" s="7">
-        <v>20</v>
-      </c>
-      <c r="E15" s="7">
-        <v>20</v>
-      </c>
-      <c r="F15" s="7">
-        <v>20</v>
-      </c>
-      <c r="G15" s="7">
-        <v>20</v>
-      </c>
-      <c r="H15" s="7">
-        <v>20</v>
-      </c>
-      <c r="I15" s="7">
-        <v>20</v>
-      </c>
-      <c r="J15" s="7">
-        <v>20</v>
-      </c>
-      <c r="K15" s="7">
-        <v>20</v>
-      </c>
-      <c r="L15" s="7">
+      <c r="B15" s="19">
+        <v>20</v>
+      </c>
+      <c r="C15" s="20">
+        <v>20</v>
+      </c>
+      <c r="D15" s="20">
+        <v>20</v>
+      </c>
+      <c r="E15" s="20">
+        <v>20</v>
+      </c>
+      <c r="F15" s="20">
+        <v>20</v>
+      </c>
+      <c r="G15" s="20">
+        <v>20</v>
+      </c>
+      <c r="H15" s="20">
+        <v>20</v>
+      </c>
+      <c r="I15" s="20">
+        <v>20</v>
+      </c>
+      <c r="J15" s="20">
+        <v>20</v>
+      </c>
+      <c r="K15" s="20">
+        <v>20</v>
+      </c>
+      <c r="L15" s="20">
         <v>0</v>
       </c>
     </row>
@@ -4437,47 +4507,47 @@
       <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="19">
         <f>B15</f>
         <v>20</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="20">
         <f>C15-B15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="20">
         <f t="shared" ref="D16:L16" si="3">D15-C15</f>
         <v>0</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="20">
         <f t="shared" si="3"/>
         <v>-20</v>
       </c>
@@ -4491,8 +4561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02D4903-1C54-D748-94E9-2B493E32797B}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L1048576"/>
+    <sheetView zoomScale="211" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4986,7 +5056,7 @@
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="21">
         <v>30</v>
       </c>
       <c r="C18" s="4"/>
